--- a/tests/testdata/data/excel_data/30天留存率_excel_two_header.xlsx
+++ b/tests/testdata/data/excel_data/30天留存率_excel_two_header.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cecelia/Documents/F25工作/测试数据集/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cecelia/PycharmProjects/PAI-RAG/tests/testdata/data/excel_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CB6E60D-A840-F14D-A54C-E62FCF92FFF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1361D02D-8763-3E41-A3CE-4C3A50EDDF07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="640" yWindow="1000" windowWidth="27840" windowHeight="15860" xr2:uid="{CD6CB801-BB85-4045-9B2D-AD2810FBA63B}"/>
   </bookViews>
@@ -100,11 +100,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -424,7 +430,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -462,7 +468,7 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="1">
+      <c r="A5" s="2">
         <v>20240301</v>
       </c>
       <c r="B5" s="1">
@@ -470,7 +476,7 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="1">
+      <c r="A6" s="3">
         <v>20240401</v>
       </c>
       <c r="B6" s="1">
@@ -478,7 +484,7 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="1">
+      <c r="A7" s="3">
         <v>20240501</v>
       </c>
       <c r="B7" s="1">

--- a/tests/testdata/data/excel_data/30天留存率_excel_two_header.xlsx
+++ b/tests/testdata/data/excel_data/30天留存率_excel_two_header.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cecelia/PycharmProjects/PAI-RAG/tests/testdata/data/excel_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1361D02D-8763-3E41-A3CE-4C3A50EDDF07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCD7978B-8858-8D43-8EDC-8372CDC09381}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="640" yWindow="1000" windowWidth="27840" windowHeight="15860" xr2:uid="{CD6CB801-BB85-4045-9B2D-AD2810FBA63B}"/>
   </bookViews>
@@ -430,7 +430,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A5" sqref="A5:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -476,17 +476,13 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="3">
-        <v>20240401</v>
-      </c>
+      <c r="A6" s="3"/>
       <c r="B6" s="1">
         <v>0.9375</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="3">
-        <v>20240501</v>
-      </c>
+      <c r="A7" s="3"/>
       <c r="B7" s="1">
         <v>0.90910000000000002</v>
       </c>
@@ -508,6 +504,9 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A5:A7"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
